--- a/Output_Backtest/Mean_Variance_drawdowns.xlsx
+++ b/Output_Backtest/Mean_Variance_drawdowns.xlsx
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.02643563225403487</v>
+        <v>-0.02643572087170955</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.08342221622669024</v>
+        <v>-0.08342223656772078</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.0884701652448351</v>
+        <v>-0.08847022013047812</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.02335288716779392</v>
+        <v>-0.02335304432667238</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.03419588505433702</v>
+        <v>-0.03419611717994301</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>-0.01066776323144258</v>
+        <v>-0.01066788877109379</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>-0.002198250132445449</v>
+        <v>-0.002197252197145548</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.01115305335212026</v>
+        <v>-0.01115330212595615</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.01449190477949055</v>
+        <v>-0.01449193649466804</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.05043444456955</v>
+        <v>-0.05043443558240718</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.0738663526489855</v>
+        <v>-0.07386641105168526</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.0536351057260989</v>
+        <v>-0.05363501188272247</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.04087998392805751</v>
+        <v>-0.04087994897035429</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.008514737418176075</v>
+        <v>-0.008514873246497615</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.009677441066813524</v>
+        <v>-0.009677564866009319</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>-0.0001308167615903989</v>
+        <v>-0.000130619960636865</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.02879901616162934</v>
+        <v>-0.02879901883188079</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.04499156619646068</v>
+        <v>-0.04499141581116924</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.05684938028943477</v>
+        <v>-0.05684938050192721</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01616675344260601</v>
+        <v>-0.01616567469052538</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.00760074811834747</v>
+        <v>-0.007599623316490813</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.0116225469293525</v>
+        <v>-0.01162268776635793</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.0407917600508525</v>
+        <v>-0.04079165805750481</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03762096065487372</v>
+        <v>-0.03762089572906303</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.0988445000025503</v>
+        <v>-0.09884423119567408</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.005105777080645211</v>
+        <v>-0.005105784163344031</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>-0.01976600878489517</v>
+        <v>-0.01976600817514538</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.05305155796328225</v>
+        <v>-0.05305150437253813</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>-0.03632161040205004</v>
+        <v>-0.03632144191646576</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.0198381161890263</v>
+        <v>-0.01983815127879145</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>-0.01461227444655192</v>
+        <v>-0.01461235782943389</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.08885958181710078</v>
+        <v>-0.08885955837312359</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.1248901890111158</v>
+        <v>-0.1248902603755834</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.0704694777220899</v>
+        <v>-0.07046940636376385</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>-0.04451154160012109</v>
+        <v>-0.04451146711431183</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>-0.01648752628423716</v>
+        <v>-0.01648730930511732</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.04529978490157016</v>
+        <v>-0.04529977398929477</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.06711144542419951</v>
+        <v>-0.06711149899847776</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.03383939899461194</v>
+        <v>-0.03383938690970719</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.01741010528767571</v>
+        <v>-0.01741007448096643</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.0007169019886603372</v>
+        <v>-0.0007168017587647422</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>-0.02055616765028211</v>
+        <v>-0.02055615365732312</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.04646524334232148</v>
+        <v>-0.04646526100929967</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.0004619249365050805</v>
+        <v>-0.0004619398492933583</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01717333967577828</v>
+        <v>-0.01717329505591466</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.06797802024873963</v>
+        <v>-0.06797803675063505</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.1023737758183758</v>
+        <v>-0.1023737965898299</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06769066786386529</v>
+        <v>-0.067690700142294</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1513478319880898</v>
+        <v>-0.1513477249595087</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.1686957309067064</v>
+        <v>-0.168696166595659</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.2394190845627406</v>
+        <v>-0.2394198377116031</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.2039052735336894</v>
+        <v>-0.2039062562166159</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.2494263060217145</v>
+        <v>-0.2494272469821063</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.3457040302017169</v>
+        <v>-0.3457048329605001</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.2982239898603959</v>
+        <v>-0.2982251877807655</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.2724234986364095</v>
+        <v>-0.27242504269011</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.3148990300723489</v>
+        <v>-0.3149016314665751</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.264814580642296</v>
+        <v>-0.2648173648034714</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.2809453921497604</v>
+        <v>-0.2809480636530787</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.2702332655604894</v>
+        <v>-0.2702359466644992</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.2706551903087703</v>
+        <v>-0.2706578828899147</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.275600630876516</v>
+        <v>-0.2756032130585722</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.2304165506760668</v>
+        <v>-0.2304191580720009</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.1755930022637281</v>
+        <v>-0.1755957819165124</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1847009306444653</v>
+        <v>-0.1847036448248666</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1947881543858044</v>
+        <v>-0.1947908500748732</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.2305229389244584</v>
+        <v>-0.2305254990905928</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1829375756743098</v>
+        <v>-0.1829402654213092</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.1637005245859879</v>
+        <v>-0.1637032884269136</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.1440981489798196</v>
+        <v>-0.1441009776703898</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.1080638020825525</v>
+        <v>-0.1080667670993921</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.07905083714620391</v>
+        <v>-0.07905390341663075</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.09846953923538899</v>
+        <v>-0.0984724667750108</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.08546701511226995</v>
+        <v>-0.08546998352562901</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.04103387727621254</v>
+        <v>-0.04103698991172876</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.03633019101645697</v>
+        <v>-0.03633331891931215</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.03748251064682157</v>
+        <v>-0.03748563480944969</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>-0.03036483719082635</v>
+        <v>-0.03036798445617174</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.00990459259533972</v>
+        <v>-0.009907819874976676</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.03699315893791616</v>
+        <v>-0.03699626834376869</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Mean_Variance_drawdowns.xlsx
+++ b/Output_Backtest/Mean_Variance_drawdowns.xlsx
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.02643572087170955</v>
+        <v>-0.02643552109362077</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.08342223656772078</v>
+        <v>-0.08342221712689731</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.08847022013047812</v>
+        <v>-0.08847022453291528</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>42460</v>
       </c>
       <c r="B42">
-        <v>-0.02335304432667238</v>
+        <v>-0.02335299195221028</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>42490</v>
       </c>
       <c r="B43">
-        <v>-0.03419611717994301</v>
+        <v>-0.03419606389718804</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>42521</v>
       </c>
       <c r="B44">
-        <v>-0.01066788877109379</v>
+        <v>-0.01066784181591959</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>42551</v>
       </c>
       <c r="B45">
-        <v>-0.002197252197145548</v>
+        <v>-0.002197607332501246</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.01115330212595615</v>
+        <v>-0.01115322506194097</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.01449193649466804</v>
+        <v>-0.01449181925030491</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.05043443558240718</v>
+        <v>-0.05043457829900456</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.07386641105168526</v>
+        <v>-0.07386656081573778</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.05363501188272247</v>
+        <v>-0.05363517654080383</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.04087994897035429</v>
+        <v>-0.04088023633158174</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.008514873246497615</v>
+        <v>-0.008515137371472463</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.009677564866009319</v>
+        <v>-0.00967779009089458</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -852,7 +852,7 @@
         <v>42978</v>
       </c>
       <c r="B59">
-        <v>-0.000130619960636865</v>
+        <v>-0.00013066906082467</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.02879901883188079</v>
+        <v>-0.02879896926422443</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.04499141581116924</v>
+        <v>-0.04499162474697054</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.05684938050192721</v>
+        <v>-0.05684943422449875</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.01616567469052538</v>
+        <v>-0.01616741665510322</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.007599623316490813</v>
+        <v>-0.007601064429121463</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.01162268776635793</v>
+        <v>-0.01162244860627554</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.04079165805750481</v>
+        <v>-0.04079185453857107</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.03762089572906303</v>
+        <v>-0.03762100037544169</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.09884423119567408</v>
+        <v>-0.09884457093620058</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -996,7 +996,7 @@
         <v>43524</v>
       </c>
       <c r="B77">
-        <v>-0.005105784163344031</v>
+        <v>-0.005105788256341688</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>43555</v>
       </c>
       <c r="B78">
-        <v>-0.01976600817514538</v>
+        <v>-0.01976589711278214</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>43616</v>
       </c>
       <c r="B80">
-        <v>-0.05305150437253813</v>
+        <v>-0.05305161617137471</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>43708</v>
       </c>
       <c r="B83">
-        <v>-0.03632144191646576</v>
+        <v>-0.03632149968701773</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.01983815127879145</v>
+        <v>-0.01983811997306122</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43861</v>
       </c>
       <c r="B88">
-        <v>-0.01461235782943389</v>
+        <v>-0.01461245099332177</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>43890</v>
       </c>
       <c r="B89">
-        <v>-0.08885955837312359</v>
+        <v>-0.08885972314747988</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.1248902603755834</v>
+        <v>-0.1248903004810041</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>-0.07046940636376385</v>
+        <v>-0.07046963412906748</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>43982</v>
       </c>
       <c r="B92">
-        <v>-0.04451146711431183</v>
+        <v>-0.04451176255743309</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>44012</v>
       </c>
       <c r="B93">
-        <v>-0.01648730930511732</v>
+        <v>-0.01648760601615796</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.04529977398929477</v>
+        <v>-0.04529969011049412</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.06711149899847776</v>
+        <v>-0.06711131281267449</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>44165</v>
       </c>
       <c r="B98">
-        <v>-0.03383938690970719</v>
+        <v>-0.03383931336174371</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.01741007448096643</v>
+        <v>-0.01741004712926643</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.0007168017587647422</v>
+        <v>-0.0007168148213367439</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>-0.02055615365732312</v>
+        <v>-0.0205560884213635</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.04646526100929967</v>
+        <v>-0.04646523179614719</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.0004619398492933583</v>
+        <v>-0.0004619665241666649</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01717329505591466</v>
+        <v>-0.0171733741922497</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.06797803675063505</v>
+        <v>-0.06797808312329058</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.1023737965898299</v>
+        <v>-0.1023738552785357</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.067690700142294</v>
+        <v>-0.06769082463460445</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.1513477249595087</v>
+        <v>-0.151347818850805</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.168696166595659</v>
+        <v>-0.1686961523222653</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.2394198377116031</v>
+        <v>-0.2394200178194956</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.2039062562166159</v>
+        <v>-0.2039064473989586</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.2494272469821063</v>
+        <v>-0.249427508780612</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.3457048329605001</v>
+        <v>-0.3457051041993787</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.2982251877807655</v>
+        <v>-0.2982256931407445</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.27242504269011</v>
+        <v>-0.2724253964266232</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.3149016314665751</v>
+        <v>-0.3149017047635133</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.2648173648034714</v>
+        <v>-0.2648174780361722</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.2809480636530787</v>
+        <v>-0.2809481280322625</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.2702359466644992</v>
+        <v>-0.270236078792412</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.2706578828899147</v>
+        <v>-0.2706580087409166</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.2756032130585722</v>
+        <v>-0.2756033740471828</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.2304191580720009</v>
+        <v>-0.2304192314403407</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.1755957819165124</v>
+        <v>-0.1755958988712933</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1847036448248666</v>
+        <v>-0.1847037773201118</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1947908500748732</v>
+        <v>-0.1947908942268401</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.2305254990905928</v>
+        <v>-0.2305255354539062</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1829402654213092</v>
+        <v>-0.1829402987019643</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.1637032884269136</v>
+        <v>-0.1637033165466785</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.1441009776703898</v>
+        <v>-0.1441010070896815</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.1080667670993921</v>
+        <v>-0.1080668141379016</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.07905390341663075</v>
+        <v>-0.07905393770646189</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.0984724667750108</v>
+        <v>-0.09847251676326285</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.08546998352562901</v>
+        <v>-0.08547003392943529</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.04103698991172876</v>
+        <v>-0.04103704276443443</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.03633331891931215</v>
+        <v>-0.036333372031258</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.03748563480944969</v>
+        <v>-0.03748568785788626</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>-0.03036798445617174</v>
+        <v>-0.03036803789689356</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.009907819874976676</v>
+        <v>-0.009907868030743111</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.03699626834376869</v>
+        <v>-0.02001074303068678</v>
       </c>
     </row>
   </sheetData>
